--- a/7/1/1/4/2/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/4/2/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Serie</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4377,7 +4380,7 @@
         <v>70</v>
       </c>
       <c r="B50">
-        <v>26508</v>
+        <v>26507</v>
       </c>
       <c r="C50">
         <v>19875</v>
@@ -4395,7 +4398,7 @@
         <v>8389</v>
       </c>
       <c r="H50">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="I50">
         <v>6357</v>
@@ -4404,13 +4407,13 @@
         <v>4455</v>
       </c>
       <c r="K50">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="L50">
-        <v>10822</v>
+        <v>10819</v>
       </c>
       <c r="M50">
-        <v>9358</v>
+        <v>9356</v>
       </c>
       <c r="N50">
         <v>521</v>
@@ -4419,16 +4422,16 @@
         <v>5566</v>
       </c>
       <c r="P50">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="Q50">
         <v>1478</v>
       </c>
       <c r="R50">
-        <v>8763</v>
+        <v>8766</v>
       </c>
       <c r="S50">
-        <v>7447</v>
+        <v>7450</v>
       </c>
       <c r="T50">
         <v>143</v>
@@ -4437,13 +4440,13 @@
         <v>1147</v>
       </c>
       <c r="V50">
-        <v>6226</v>
+        <v>6229</v>
       </c>
       <c r="W50">
         <v>1297</v>
       </c>
       <c r="X50">
-        <v>28617</v>
+        <v>28609</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4451,7 +4454,7 @@
         <v>71</v>
       </c>
       <c r="B51">
-        <v>27524</v>
+        <v>27536</v>
       </c>
       <c r="C51">
         <v>20036</v>
@@ -4472,37 +4475,37 @@
         <v>3457</v>
       </c>
       <c r="I51">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="J51">
         <v>4465</v>
       </c>
       <c r="K51">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="L51">
-        <v>10280</v>
+        <v>10279</v>
       </c>
       <c r="M51">
-        <v>8783</v>
+        <v>8782</v>
       </c>
       <c r="N51">
         <v>568</v>
       </c>
       <c r="O51">
-        <v>4882</v>
+        <v>4883</v>
       </c>
       <c r="P51">
-        <v>3265</v>
+        <v>3263</v>
       </c>
       <c r="Q51">
         <v>1521</v>
       </c>
       <c r="R51">
-        <v>9065</v>
+        <v>9063</v>
       </c>
       <c r="S51">
-        <v>7766</v>
+        <v>7764</v>
       </c>
       <c r="T51">
         <v>144</v>
@@ -4511,13 +4514,13 @@
         <v>1033</v>
       </c>
       <c r="V51">
-        <v>6641</v>
+        <v>6638</v>
       </c>
       <c r="W51">
         <v>1270</v>
       </c>
       <c r="X51">
-        <v>28613</v>
+        <v>28626</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4525,7 +4528,7 @@
         <v>72</v>
       </c>
       <c r="B52">
-        <v>27074</v>
+        <v>27063</v>
       </c>
       <c r="C52">
         <v>19829</v>
@@ -4555,43 +4558,43 @@
         <v>2260</v>
       </c>
       <c r="L52">
-        <v>10356</v>
+        <v>10358</v>
       </c>
       <c r="M52">
-        <v>8848</v>
+        <v>8850</v>
       </c>
       <c r="N52">
         <v>574</v>
       </c>
       <c r="O52">
-        <v>4866</v>
+        <v>4867</v>
       </c>
       <c r="P52">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="Q52">
         <v>1531</v>
       </c>
       <c r="R52">
-        <v>8956</v>
+        <v>8955</v>
       </c>
       <c r="S52">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="T52">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U52">
         <v>1060</v>
       </c>
       <c r="V52">
-        <v>6521</v>
+        <v>6520</v>
       </c>
       <c r="W52">
         <v>1231</v>
       </c>
       <c r="X52">
-        <v>28393</v>
+        <v>28386</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4599,10 +4602,10 @@
         <v>73</v>
       </c>
       <c r="B53">
-        <v>26276</v>
+        <v>26264</v>
       </c>
       <c r="C53">
-        <v>19689</v>
+        <v>19688</v>
       </c>
       <c r="D53">
         <v>16242</v>
@@ -4626,31 +4629,31 @@
         <v>4410</v>
       </c>
       <c r="K53">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="L53">
-        <v>10007</v>
+        <v>10011</v>
       </c>
       <c r="M53">
-        <v>8526</v>
+        <v>8530</v>
       </c>
       <c r="N53">
         <v>605</v>
       </c>
       <c r="O53">
-        <v>4743</v>
+        <v>4744</v>
       </c>
       <c r="P53">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="Q53">
         <v>1505</v>
       </c>
       <c r="R53">
-        <v>8129</v>
+        <v>8130</v>
       </c>
       <c r="S53">
-        <v>6879</v>
+        <v>6880</v>
       </c>
       <c r="T53">
         <v>124</v>
@@ -4659,13 +4662,13 @@
         <v>1036</v>
       </c>
       <c r="V53">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="W53">
         <v>1237</v>
       </c>
       <c r="X53">
-        <v>28123</v>
+        <v>28115</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4673,10 +4676,10 @@
         <v>74</v>
       </c>
       <c r="B54">
-        <v>24819</v>
+        <v>24822</v>
       </c>
       <c r="C54">
-        <v>19716</v>
+        <v>19717</v>
       </c>
       <c r="D54">
         <v>16085</v>
@@ -4700,31 +4703,31 @@
         <v>4308</v>
       </c>
       <c r="K54">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="L54">
-        <v>9922</v>
+        <v>9920</v>
       </c>
       <c r="M54">
-        <v>8554</v>
+        <v>8551</v>
       </c>
       <c r="N54">
         <v>608</v>
       </c>
       <c r="O54">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="P54">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="Q54">
         <v>1393</v>
       </c>
       <c r="R54">
-        <v>7129</v>
+        <v>7131</v>
       </c>
       <c r="S54">
-        <v>5952</v>
+        <v>5954</v>
       </c>
       <c r="T54">
         <v>104</v>
@@ -4733,13 +4736,13 @@
         <v>929</v>
       </c>
       <c r="V54">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="W54">
         <v>1187</v>
       </c>
       <c r="X54">
-        <v>27882</v>
+        <v>27879</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4747,7 +4750,7 @@
         <v>75</v>
       </c>
       <c r="B55">
-        <v>24591</v>
+        <v>24594</v>
       </c>
       <c r="C55">
         <v>19561</v>
@@ -4774,13 +4777,13 @@
         <v>4182</v>
       </c>
       <c r="K55">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="L55">
-        <v>9715</v>
+        <v>9714</v>
       </c>
       <c r="M55">
-        <v>8407</v>
+        <v>8406</v>
       </c>
       <c r="N55">
         <v>517</v>
@@ -4789,16 +4792,16 @@
         <v>5000</v>
       </c>
       <c r="P55">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="Q55">
         <v>1335</v>
       </c>
       <c r="R55">
-        <v>6897</v>
+        <v>6896</v>
       </c>
       <c r="S55">
-        <v>5745</v>
+        <v>5744</v>
       </c>
       <c r="T55">
         <v>118</v>
@@ -4807,13 +4810,13 @@
         <v>940</v>
       </c>
       <c r="V55">
-        <v>4718</v>
+        <v>4717</v>
       </c>
       <c r="W55">
         <v>1165</v>
       </c>
       <c r="X55">
-        <v>27706</v>
+        <v>27710</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4821,7 +4824,7 @@
         <v>76</v>
       </c>
       <c r="B56">
-        <v>24887</v>
+        <v>24880</v>
       </c>
       <c r="C56">
         <v>20169</v>
@@ -4848,31 +4851,31 @@
         <v>4016</v>
       </c>
       <c r="K56">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="L56">
-        <v>9917</v>
+        <v>9919</v>
       </c>
       <c r="M56">
-        <v>8676</v>
+        <v>8679</v>
       </c>
       <c r="N56">
         <v>589</v>
       </c>
       <c r="O56">
-        <v>5117</v>
+        <v>5118</v>
       </c>
       <c r="P56">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="Q56">
         <v>1275</v>
       </c>
       <c r="R56">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="S56">
-        <v>5887</v>
+        <v>5886</v>
       </c>
       <c r="T56">
         <v>88</v>
@@ -4881,13 +4884,13 @@
         <v>1039</v>
       </c>
       <c r="V56">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="W56">
         <v>1194</v>
       </c>
       <c r="X56">
-        <v>28025</v>
+        <v>28021</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -4895,10 +4898,10 @@
         <v>77</v>
       </c>
       <c r="B57">
-        <v>26119</v>
+        <v>26109</v>
       </c>
       <c r="C57">
-        <v>20370</v>
+        <v>20369</v>
       </c>
       <c r="D57">
         <v>16633</v>
@@ -4925,10 +4928,10 @@
         <v>1774</v>
       </c>
       <c r="L57">
-        <v>10159</v>
+        <v>10163</v>
       </c>
       <c r="M57">
-        <v>8836</v>
+        <v>8840</v>
       </c>
       <c r="N57">
         <v>558</v>
@@ -4937,13 +4940,13 @@
         <v>5244</v>
       </c>
       <c r="P57">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="Q57">
         <v>1354</v>
       </c>
       <c r="R57">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="S57">
         <v>6772</v>
@@ -4961,7 +4964,7 @@
         <v>1218</v>
       </c>
       <c r="X57">
-        <v>28382</v>
+        <v>28376</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -4969,7 +4972,7 @@
         <v>78</v>
       </c>
       <c r="B58">
-        <v>26923</v>
+        <v>26924</v>
       </c>
       <c r="C58">
         <v>20792</v>
@@ -4981,7 +4984,7 @@
         <v>1145</v>
       </c>
       <c r="F58">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="G58">
         <v>8736</v>
@@ -4990,7 +4993,7 @@
         <v>3838</v>
       </c>
       <c r="I58">
-        <v>5990</v>
+        <v>5991</v>
       </c>
       <c r="J58">
         <v>4001</v>
@@ -4999,10 +5002,10 @@
         <v>2025</v>
       </c>
       <c r="L58">
-        <v>9826</v>
+        <v>9824</v>
       </c>
       <c r="M58">
-        <v>8388</v>
+        <v>8386</v>
       </c>
       <c r="N58">
         <v>531</v>
@@ -5011,16 +5014,16 @@
         <v>5130</v>
       </c>
       <c r="P58">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="Q58">
         <v>1458</v>
       </c>
       <c r="R58">
-        <v>8416</v>
+        <v>8418</v>
       </c>
       <c r="S58">
-        <v>7229</v>
+        <v>7231</v>
       </c>
       <c r="T58">
         <v>98</v>
@@ -5029,13 +5032,13 @@
         <v>917</v>
       </c>
       <c r="V58">
-        <v>6202</v>
+        <v>6204</v>
       </c>
       <c r="W58">
         <v>1190</v>
       </c>
       <c r="X58">
-        <v>28474</v>
+        <v>28471</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5043,7 +5046,7 @@
         <v>79</v>
       </c>
       <c r="B59">
-        <v>28310</v>
+        <v>28313</v>
       </c>
       <c r="C59">
         <v>21757</v>
@@ -5070,31 +5073,31 @@
         <v>4081</v>
       </c>
       <c r="K59">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="L59">
-        <v>9873</v>
+        <v>9872</v>
       </c>
       <c r="M59">
-        <v>8313</v>
+        <v>8312</v>
       </c>
       <c r="N59">
         <v>612</v>
       </c>
       <c r="O59">
-        <v>4978</v>
+        <v>4979</v>
       </c>
       <c r="P59">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="Q59">
         <v>1574</v>
       </c>
       <c r="R59">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="S59">
-        <v>7630</v>
+        <v>7629</v>
       </c>
       <c r="T59">
         <v>110</v>
@@ -5103,13 +5106,13 @@
         <v>828</v>
       </c>
       <c r="V59">
-        <v>6655</v>
+        <v>6654</v>
       </c>
       <c r="W59">
         <v>1242</v>
       </c>
       <c r="X59">
-        <v>29439</v>
+        <v>29443</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5117,7 +5120,7 @@
         <v>80</v>
       </c>
       <c r="B60">
-        <v>28887</v>
+        <v>28880</v>
       </c>
       <c r="C60">
         <v>22173</v>
@@ -5135,7 +5138,7 @@
         <v>9322</v>
       </c>
       <c r="H60">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="I60">
         <v>6425</v>
@@ -5147,10 +5150,10 @@
         <v>2137</v>
       </c>
       <c r="L60">
-        <v>10707</v>
+        <v>10709</v>
       </c>
       <c r="M60">
-        <v>9047</v>
+        <v>9049</v>
       </c>
       <c r="N60">
         <v>596</v>
@@ -5159,13 +5162,13 @@
         <v>5410</v>
       </c>
       <c r="P60">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="Q60">
         <v>1677</v>
       </c>
       <c r="R60">
-        <v>9549</v>
+        <v>9548</v>
       </c>
       <c r="S60">
         <v>8142</v>
@@ -5177,13 +5180,13 @@
         <v>1019</v>
       </c>
       <c r="V60">
-        <v>6991</v>
+        <v>6990</v>
       </c>
       <c r="W60">
         <v>1411</v>
       </c>
       <c r="X60">
-        <v>30136</v>
+        <v>30132</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5191,10 +5194,10 @@
         <v>81</v>
       </c>
       <c r="B61">
-        <v>29887</v>
+        <v>29877</v>
       </c>
       <c r="C61">
-        <v>22630</v>
+        <v>22629</v>
       </c>
       <c r="D61">
         <v>18710</v>
@@ -5209,7 +5212,7 @@
         <v>9466</v>
       </c>
       <c r="H61">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="I61">
         <v>6871</v>
@@ -5221,10 +5224,10 @@
         <v>2358</v>
       </c>
       <c r="L61">
-        <v>10240</v>
+        <v>10244</v>
       </c>
       <c r="M61">
-        <v>8626</v>
+        <v>8630</v>
       </c>
       <c r="N61">
         <v>589</v>
@@ -5233,7 +5236,7 @@
         <v>4958</v>
       </c>
       <c r="P61">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="Q61">
         <v>1629</v>
@@ -5257,7 +5260,7 @@
         <v>1415</v>
       </c>
       <c r="X61">
-        <v>30516</v>
+        <v>30510</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5265,7 +5268,7 @@
         <v>82</v>
       </c>
       <c r="B62">
-        <v>30633</v>
+        <v>30632</v>
       </c>
       <c r="C62">
         <v>22930</v>
@@ -5286,7 +5289,7 @@
         <v>3872</v>
       </c>
       <c r="I62">
-        <v>7315</v>
+        <v>7316</v>
       </c>
       <c r="J62">
         <v>4601</v>
@@ -5295,28 +5298,28 @@
         <v>2719</v>
       </c>
       <c r="L62">
-        <v>10581</v>
+        <v>10579</v>
       </c>
       <c r="M62">
-        <v>8773</v>
+        <v>8772</v>
       </c>
       <c r="N62">
         <v>673</v>
       </c>
       <c r="O62">
-        <v>4927</v>
+        <v>4928</v>
       </c>
       <c r="P62">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="Q62">
         <v>1845</v>
       </c>
       <c r="R62">
-        <v>10392</v>
+        <v>10394</v>
       </c>
       <c r="S62">
-        <v>8963</v>
+        <v>8965</v>
       </c>
       <c r="T62">
         <v>134</v>
@@ -5325,13 +5328,13 @@
         <v>1244</v>
       </c>
       <c r="V62">
-        <v>7581</v>
+        <v>7583</v>
       </c>
       <c r="W62">
         <v>1430</v>
       </c>
       <c r="X62">
-        <v>30896</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5339,7 +5342,7 @@
         <v>83</v>
       </c>
       <c r="B63">
-        <v>31127</v>
+        <v>31135</v>
       </c>
       <c r="C63">
         <v>23282</v>
@@ -5369,10 +5372,10 @@
         <v>2605</v>
       </c>
       <c r="L63">
-        <v>10713</v>
+        <v>10712</v>
       </c>
       <c r="M63">
-        <v>8954</v>
+        <v>8953</v>
       </c>
       <c r="N63">
         <v>647</v>
@@ -5381,7 +5384,7 @@
         <v>5136</v>
       </c>
       <c r="P63">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="Q63">
         <v>1788</v>
@@ -5405,7 +5408,7 @@
         <v>1639</v>
       </c>
       <c r="X63">
-        <v>31315</v>
+        <v>31321</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5413,7 +5416,7 @@
         <v>84</v>
       </c>
       <c r="B64">
-        <v>31555</v>
+        <v>31546</v>
       </c>
       <c r="C64">
         <v>23635</v>
@@ -5443,19 +5446,19 @@
         <v>2593</v>
       </c>
       <c r="L64">
-        <v>10648</v>
+        <v>10650</v>
       </c>
       <c r="M64">
-        <v>8885</v>
+        <v>8887</v>
       </c>
       <c r="N64">
         <v>623</v>
       </c>
       <c r="O64">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="P64">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="Q64">
         <v>1794</v>
@@ -5464,7 +5467,7 @@
         <v>10810</v>
       </c>
       <c r="S64">
-        <v>9264</v>
+        <v>9263</v>
       </c>
       <c r="T64">
         <v>130</v>
@@ -5473,13 +5476,13 @@
         <v>1352</v>
       </c>
       <c r="V64">
-        <v>7782</v>
+        <v>7781</v>
       </c>
       <c r="W64">
         <v>1550</v>
       </c>
       <c r="X64">
-        <v>31441</v>
+        <v>31435</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5487,7 +5490,7 @@
         <v>85</v>
       </c>
       <c r="B65">
-        <v>31389</v>
+        <v>31378</v>
       </c>
       <c r="C65">
         <v>23867</v>
@@ -5517,10 +5520,10 @@
         <v>3024</v>
       </c>
       <c r="L65">
-        <v>10899</v>
+        <v>10903</v>
       </c>
       <c r="M65">
-        <v>9160</v>
+        <v>9164</v>
       </c>
       <c r="N65">
         <v>671</v>
@@ -5529,16 +5532,16 @@
         <v>5146</v>
       </c>
       <c r="P65">
-        <v>3355</v>
+        <v>3358</v>
       </c>
       <c r="Q65">
         <v>1763</v>
       </c>
       <c r="R65">
-        <v>10324</v>
+        <v>10323</v>
       </c>
       <c r="S65">
-        <v>8874</v>
+        <v>8873</v>
       </c>
       <c r="T65">
         <v>165</v>
@@ -5547,13 +5550,13 @@
         <v>945</v>
       </c>
       <c r="V65">
-        <v>7742</v>
+        <v>7741</v>
       </c>
       <c r="W65">
         <v>1452</v>
       </c>
       <c r="X65">
-        <v>32051</v>
+        <v>32045</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5561,7 +5564,7 @@
         <v>86</v>
       </c>
       <c r="B66">
-        <v>32258</v>
+        <v>32254</v>
       </c>
       <c r="C66">
         <v>24140</v>
@@ -5588,13 +5591,13 @@
         <v>4944</v>
       </c>
       <c r="K66">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="L66">
-        <v>10790</v>
+        <v>10788</v>
       </c>
       <c r="M66">
-        <v>9145</v>
+        <v>9143</v>
       </c>
       <c r="N66">
         <v>719</v>
@@ -5603,16 +5606,16 @@
         <v>5087</v>
       </c>
       <c r="P66">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="Q66">
         <v>1652</v>
       </c>
       <c r="R66">
-        <v>10496</v>
+        <v>10497</v>
       </c>
       <c r="S66">
-        <v>9138</v>
+        <v>9139</v>
       </c>
       <c r="T66">
         <v>152</v>
@@ -5627,7 +5630,7 @@
         <v>1357</v>
       </c>
       <c r="X66">
-        <v>32603</v>
+        <v>32597</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5635,7 +5638,7 @@
         <v>87</v>
       </c>
       <c r="B67">
-        <v>33190</v>
+        <v>33200</v>
       </c>
       <c r="C67">
         <v>24652</v>
@@ -5665,28 +5668,28 @@
         <v>2764</v>
       </c>
       <c r="L67">
-        <v>10717</v>
+        <v>10715</v>
       </c>
       <c r="M67">
-        <v>9066</v>
+        <v>9065</v>
       </c>
       <c r="N67">
         <v>615</v>
       </c>
       <c r="O67">
-        <v>5066</v>
+        <v>5067</v>
       </c>
       <c r="P67">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="Q67">
         <v>1660</v>
       </c>
       <c r="R67">
-        <v>10835</v>
+        <v>10836</v>
       </c>
       <c r="S67">
-        <v>9432</v>
+        <v>9433</v>
       </c>
       <c r="T67">
         <v>149</v>
@@ -5695,13 +5698,13 @@
         <v>1023</v>
       </c>
       <c r="V67">
-        <v>8276</v>
+        <v>8277</v>
       </c>
       <c r="W67">
         <v>1402</v>
       </c>
       <c r="X67">
-        <v>33081</v>
+        <v>33089</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5709,7 +5712,7 @@
         <v>88</v>
       </c>
       <c r="B68">
-        <v>34359</v>
+        <v>34350</v>
       </c>
       <c r="C68">
         <v>24911</v>
@@ -5739,28 +5742,28 @@
         <v>3483</v>
       </c>
       <c r="L68">
-        <v>10196</v>
+        <v>10198</v>
       </c>
       <c r="M68">
-        <v>8630</v>
+        <v>8631</v>
       </c>
       <c r="N68">
         <v>638</v>
       </c>
       <c r="O68">
-        <v>4843</v>
+        <v>4844</v>
       </c>
       <c r="P68">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="Q68">
         <v>1575</v>
       </c>
       <c r="R68">
-        <v>11168</v>
+        <v>11167</v>
       </c>
       <c r="S68">
-        <v>9714</v>
+        <v>9713</v>
       </c>
       <c r="T68">
         <v>166</v>
@@ -5769,13 +5772,13 @@
         <v>1077</v>
       </c>
       <c r="V68">
-        <v>8485</v>
+        <v>8484</v>
       </c>
       <c r="W68">
         <v>1453</v>
       </c>
       <c r="X68">
-        <v>33300</v>
+        <v>33294</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5783,7 +5786,7 @@
         <v>89</v>
       </c>
       <c r="B69">
-        <v>34093</v>
+        <v>34081</v>
       </c>
       <c r="C69">
         <v>25326</v>
@@ -5813,28 +5816,28 @@
         <v>3668</v>
       </c>
       <c r="L69">
-        <v>11217</v>
+        <v>11221</v>
       </c>
       <c r="M69">
-        <v>9606</v>
+        <v>9610</v>
       </c>
       <c r="N69">
         <v>612</v>
       </c>
       <c r="O69">
-        <v>5576</v>
+        <v>5577</v>
       </c>
       <c r="P69">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="Q69">
         <v>1600</v>
       </c>
       <c r="R69">
-        <v>11784</v>
+        <v>11783</v>
       </c>
       <c r="S69">
-        <v>10245</v>
+        <v>10244</v>
       </c>
       <c r="T69">
         <v>154</v>
@@ -5843,13 +5846,13 @@
         <v>1178</v>
       </c>
       <c r="V69">
-        <v>8921</v>
+        <v>8920</v>
       </c>
       <c r="W69">
         <v>1539</v>
       </c>
       <c r="X69">
-        <v>33541</v>
+        <v>33533</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5857,7 +5860,7 @@
         <v>90</v>
       </c>
       <c r="B70">
-        <v>34551</v>
+        <v>34547</v>
       </c>
       <c r="C70">
         <v>25400</v>
@@ -5887,19 +5890,19 @@
         <v>3383</v>
       </c>
       <c r="L70">
-        <v>10621</v>
+        <v>10619</v>
       </c>
       <c r="M70">
-        <v>9013</v>
+        <v>9011</v>
       </c>
       <c r="N70">
         <v>602</v>
       </c>
       <c r="O70">
-        <v>4907</v>
+        <v>4908</v>
       </c>
       <c r="P70">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="Q70">
         <v>1608</v>
@@ -5923,7 +5926,7 @@
         <v>1475</v>
       </c>
       <c r="X70">
-        <v>33929</v>
+        <v>33924</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -5931,7 +5934,7 @@
         <v>91</v>
       </c>
       <c r="B71">
-        <v>34608</v>
+        <v>34623</v>
       </c>
       <c r="C71">
         <v>25702</v>
@@ -5961,10 +5964,10 @@
         <v>3406</v>
       </c>
       <c r="L71">
-        <v>11390</v>
+        <v>11387</v>
       </c>
       <c r="M71">
-        <v>9790</v>
+        <v>9787</v>
       </c>
       <c r="N71">
         <v>817</v>
@@ -5973,31 +5976,31 @@
         <v>5562</v>
       </c>
       <c r="P71">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="Q71">
         <v>1600</v>
       </c>
       <c r="R71">
-        <v>11562</v>
+        <v>11563</v>
       </c>
       <c r="S71">
-        <v>10123</v>
+        <v>10124</v>
       </c>
       <c r="T71">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U71">
         <v>1314</v>
       </c>
       <c r="V71">
-        <v>8652</v>
+        <v>8654</v>
       </c>
       <c r="W71">
         <v>1439</v>
       </c>
       <c r="X71">
-        <v>34436</v>
+        <v>34448</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6005,7 +6008,7 @@
         <v>92</v>
       </c>
       <c r="B72">
-        <v>34692</v>
+        <v>34684</v>
       </c>
       <c r="C72">
         <v>26012</v>
@@ -6044,34 +6047,34 @@
         <v>697</v>
       </c>
       <c r="O72">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="P72">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="Q72">
         <v>1631</v>
       </c>
       <c r="R72">
-        <v>11348</v>
+        <v>11347</v>
       </c>
       <c r="S72">
         <v>9795</v>
       </c>
       <c r="T72">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U72">
         <v>1178</v>
       </c>
       <c r="V72">
-        <v>8472</v>
+        <v>8471</v>
       </c>
       <c r="W72">
         <v>1553</v>
       </c>
       <c r="X72">
-        <v>34750</v>
+        <v>34742</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6079,7 +6082,7 @@
         <v>93</v>
       </c>
       <c r="B73">
-        <v>34881</v>
+        <v>34869</v>
       </c>
       <c r="C73">
         <v>26214</v>
@@ -6109,25 +6112,25 @@
         <v>2821</v>
       </c>
       <c r="L73">
-        <v>11010</v>
+        <v>11012</v>
       </c>
       <c r="M73">
-        <v>9426</v>
+        <v>9428</v>
       </c>
       <c r="N73">
         <v>635</v>
       </c>
       <c r="O73">
-        <v>5428</v>
+        <v>5427</v>
       </c>
       <c r="P73">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="Q73">
         <v>1583</v>
       </c>
       <c r="R73">
-        <v>11066</v>
+        <v>11065</v>
       </c>
       <c r="S73">
         <v>9498</v>
@@ -6145,7 +6148,7 @@
         <v>1568</v>
       </c>
       <c r="X73">
-        <v>34824</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6153,7 +6156,7 @@
         <v>94</v>
       </c>
       <c r="B74">
-        <v>34545</v>
+        <v>34538</v>
       </c>
       <c r="C74">
         <v>26484</v>
@@ -6183,19 +6186,19 @@
         <v>2981</v>
       </c>
       <c r="L74">
-        <v>11074</v>
+        <v>11075</v>
       </c>
       <c r="M74">
-        <v>9484</v>
+        <v>9486</v>
       </c>
       <c r="N74">
         <v>581</v>
       </c>
       <c r="O74">
-        <v>5633</v>
+        <v>5635</v>
       </c>
       <c r="P74">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="Q74">
         <v>1589</v>
@@ -6207,19 +6210,19 @@
         <v>9278</v>
       </c>
       <c r="T74">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U74">
         <v>1062</v>
       </c>
       <c r="V74">
-        <v>8069</v>
+        <v>8068</v>
       </c>
       <c r="W74">
         <v>1468</v>
       </c>
       <c r="X74">
-        <v>34873</v>
+        <v>34867</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6227,7 +6230,7 @@
         <v>95</v>
       </c>
       <c r="B75">
-        <v>34264</v>
+        <v>34283</v>
       </c>
       <c r="C75">
         <v>26421</v>
@@ -6248,7 +6251,7 @@
         <v>4348</v>
       </c>
       <c r="I75">
-        <v>8332</v>
+        <v>8331</v>
       </c>
       <c r="J75">
         <v>5230</v>
@@ -6257,43 +6260,43 @@
         <v>3101</v>
       </c>
       <c r="L75">
-        <v>11328</v>
+        <v>11324</v>
       </c>
       <c r="M75">
-        <v>9741</v>
+        <v>9738</v>
       </c>
       <c r="N75">
         <v>664</v>
       </c>
       <c r="O75">
-        <v>5456</v>
+        <v>5455</v>
       </c>
       <c r="P75">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="Q75">
         <v>1586</v>
       </c>
       <c r="R75">
-        <v>10575</v>
+        <v>10576</v>
       </c>
       <c r="S75">
-        <v>9126</v>
+        <v>9127</v>
       </c>
       <c r="T75">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U75">
         <v>1245</v>
       </c>
       <c r="V75">
-        <v>7756</v>
+        <v>7758</v>
       </c>
       <c r="W75">
         <v>1449</v>
       </c>
       <c r="X75">
-        <v>35017</v>
+        <v>35031</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6301,7 +6304,7 @@
         <v>96</v>
       </c>
       <c r="B76">
-        <v>34306</v>
+        <v>34295</v>
       </c>
       <c r="C76">
         <v>26542</v>
@@ -6328,19 +6331,19 @@
         <v>5175</v>
       </c>
       <c r="K76">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="L76">
         <v>10938</v>
       </c>
       <c r="M76">
-        <v>9588</v>
+        <v>9587</v>
       </c>
       <c r="N76">
         <v>582</v>
       </c>
       <c r="O76">
-        <v>5521</v>
+        <v>5520</v>
       </c>
       <c r="P76">
         <v>3485</v>
@@ -6349,7 +6352,7 @@
         <v>1350</v>
       </c>
       <c r="R76">
-        <v>10231</v>
+        <v>10230</v>
       </c>
       <c r="S76">
         <v>8974</v>
@@ -6361,13 +6364,13 @@
         <v>1201</v>
       </c>
       <c r="V76">
-        <v>7615</v>
+        <v>7614</v>
       </c>
       <c r="W76">
         <v>1257</v>
       </c>
       <c r="X76">
-        <v>35013</v>
+        <v>35002</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6375,7 +6378,7 @@
         <v>97</v>
       </c>
       <c r="B77">
-        <v>34919</v>
+        <v>34907</v>
       </c>
       <c r="C77">
         <v>26871</v>
@@ -6393,31 +6396,31 @@
         <v>11041</v>
       </c>
       <c r="H77">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="I77">
-        <v>8043</v>
+        <v>8044</v>
       </c>
       <c r="J77">
-        <v>5200</v>
+        <v>5201</v>
       </c>
       <c r="K77">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="L77">
-        <v>11212</v>
+        <v>11214</v>
       </c>
       <c r="M77">
-        <v>9803</v>
+        <v>9805</v>
       </c>
       <c r="N77">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O77">
-        <v>5433</v>
+        <v>5431</v>
       </c>
       <c r="P77">
-        <v>3669</v>
+        <v>3671</v>
       </c>
       <c r="Q77">
         <v>1409</v>
@@ -6426,7 +6429,7 @@
         <v>10715</v>
       </c>
       <c r="S77">
-        <v>9317</v>
+        <v>9316</v>
       </c>
       <c r="T77">
         <v>174</v>
@@ -6435,13 +6438,13 @@
         <v>1203</v>
       </c>
       <c r="V77">
-        <v>7940</v>
+        <v>7939</v>
       </c>
       <c r="W77">
         <v>1399</v>
       </c>
       <c r="X77">
-        <v>35415</v>
+        <v>35406</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6449,13 +6452,13 @@
         <v>98</v>
       </c>
       <c r="B78">
-        <v>34880</v>
+        <v>34872</v>
       </c>
       <c r="C78">
         <v>26965</v>
       </c>
       <c r="D78">
-        <v>22431</v>
+        <v>22430</v>
       </c>
       <c r="E78">
         <v>1896</v>
@@ -6470,25 +6473,25 @@
         <v>4533</v>
       </c>
       <c r="I78">
-        <v>8040</v>
+        <v>8039</v>
       </c>
       <c r="J78">
-        <v>5296</v>
+        <v>5295</v>
       </c>
       <c r="K78">
         <v>2750</v>
       </c>
       <c r="L78">
-        <v>11034</v>
+        <v>11038</v>
       </c>
       <c r="M78">
-        <v>9639</v>
+        <v>9643</v>
       </c>
       <c r="N78">
         <v>717</v>
       </c>
       <c r="O78">
-        <v>5501</v>
+        <v>5505</v>
       </c>
       <c r="P78">
         <v>3416</v>
@@ -6497,13 +6500,13 @@
         <v>1393</v>
       </c>
       <c r="R78">
-        <v>10417</v>
+        <v>10418</v>
       </c>
       <c r="S78">
-        <v>9133</v>
+        <v>9134</v>
       </c>
       <c r="T78">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U78">
         <v>1116</v>
@@ -6515,7 +6518,7 @@
         <v>1285</v>
       </c>
       <c r="X78">
-        <v>35505</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6523,10 +6526,10 @@
         <v>99</v>
       </c>
       <c r="B79">
-        <v>35119</v>
+        <v>35144</v>
       </c>
       <c r="C79">
-        <v>27130</v>
+        <v>27131</v>
       </c>
       <c r="D79">
         <v>22601</v>
@@ -6544,52 +6547,52 @@
         <v>4529</v>
       </c>
       <c r="I79">
-        <v>7982</v>
+        <v>7981</v>
       </c>
       <c r="J79">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="K79">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="L79">
-        <v>10790</v>
+        <v>10784</v>
       </c>
       <c r="M79">
-        <v>9423</v>
+        <v>9417</v>
       </c>
       <c r="N79">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O79">
-        <v>5563</v>
+        <v>5562</v>
       </c>
       <c r="P79">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="Q79">
         <v>1365</v>
       </c>
       <c r="R79">
-        <v>9989</v>
+        <v>9991</v>
       </c>
       <c r="S79">
-        <v>8687</v>
+        <v>8689</v>
       </c>
       <c r="T79">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U79">
         <v>1158</v>
       </c>
       <c r="V79">
-        <v>7397</v>
+        <v>7399</v>
       </c>
       <c r="W79">
         <v>1302</v>
       </c>
       <c r="X79">
-        <v>35948</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6597,7 +6600,7 @@
         <v>100</v>
       </c>
       <c r="B80">
-        <v>35713</v>
+        <v>35695</v>
       </c>
       <c r="C80">
         <v>27417</v>
@@ -6621,10 +6624,10 @@
         <v>8349</v>
       </c>
       <c r="J80">
-        <v>5442</v>
+        <v>5444</v>
       </c>
       <c r="K80">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="L80">
         <v>10852</v>
@@ -6633,22 +6636,22 @@
         <v>9453</v>
       </c>
       <c r="N80">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O80">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="P80">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="Q80">
         <v>1398</v>
       </c>
       <c r="R80">
-        <v>10707</v>
+        <v>10704</v>
       </c>
       <c r="S80">
-        <v>9326</v>
+        <v>9322</v>
       </c>
       <c r="T80">
         <v>160</v>
@@ -6657,13 +6660,13 @@
         <v>1092</v>
       </c>
       <c r="V80">
-        <v>8069</v>
+        <v>8065</v>
       </c>
       <c r="W80">
         <v>1382</v>
       </c>
       <c r="X80">
-        <v>35843</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6671,7 +6674,7 @@
         <v>101</v>
       </c>
       <c r="B81">
-        <v>35769</v>
+        <v>35756</v>
       </c>
       <c r="C81">
         <v>27512</v>
@@ -6692,28 +6695,28 @@
         <v>4731</v>
       </c>
       <c r="I81">
-        <v>8078</v>
+        <v>8080</v>
       </c>
       <c r="J81">
         <v>5363</v>
       </c>
       <c r="K81">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="L81">
-        <v>11069</v>
+        <v>11070</v>
       </c>
       <c r="M81">
-        <v>9574</v>
+        <v>9575</v>
       </c>
       <c r="N81">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O81">
-        <v>5509</v>
+        <v>5507</v>
       </c>
       <c r="P81">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="Q81">
         <v>1496</v>
@@ -6731,13 +6734,13 @@
         <v>1059</v>
       </c>
       <c r="V81">
-        <v>8030</v>
+        <v>8029</v>
       </c>
       <c r="W81">
         <v>1391</v>
       </c>
       <c r="X81">
-        <v>36192</v>
+        <v>36180</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6745,7 +6748,7 @@
         <v>102</v>
       </c>
       <c r="B82">
-        <v>35811</v>
+        <v>35802</v>
       </c>
       <c r="C82">
         <v>28010</v>
@@ -6769,34 +6772,34 @@
         <v>8105</v>
       </c>
       <c r="J82">
-        <v>5300</v>
+        <v>5299</v>
       </c>
       <c r="K82">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="L82">
-        <v>11090</v>
+        <v>11099</v>
       </c>
       <c r="M82">
-        <v>9620</v>
+        <v>9630</v>
       </c>
       <c r="N82">
         <v>649</v>
       </c>
       <c r="O82">
-        <v>5577</v>
+        <v>5584</v>
       </c>
       <c r="P82">
-        <v>3405</v>
+        <v>3409</v>
       </c>
       <c r="Q82">
         <v>1466</v>
       </c>
       <c r="R82">
-        <v>10483</v>
+        <v>10489</v>
       </c>
       <c r="S82">
-        <v>9131</v>
+        <v>9137</v>
       </c>
       <c r="T82">
         <v>127</v>
@@ -6805,13 +6808,13 @@
         <v>1131</v>
       </c>
       <c r="V82">
-        <v>7878</v>
+        <v>7883</v>
       </c>
       <c r="W82">
         <v>1352</v>
       </c>
       <c r="X82">
-        <v>36424</v>
+        <v>36418</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -6819,7 +6822,7 @@
         <v>103</v>
       </c>
       <c r="B83">
-        <v>35612</v>
+        <v>35644</v>
       </c>
       <c r="C83">
         <v>28049</v>
@@ -6840,40 +6843,40 @@
         <v>4952</v>
       </c>
       <c r="I83">
-        <v>8143</v>
+        <v>8139</v>
       </c>
       <c r="J83">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="K83">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="L83">
-        <v>10949</v>
+        <v>10936</v>
       </c>
       <c r="M83">
-        <v>9601</v>
+        <v>9587</v>
       </c>
       <c r="N83">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O83">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="P83">
-        <v>3553</v>
+        <v>3543</v>
       </c>
       <c r="Q83">
         <v>1352</v>
       </c>
       <c r="R83">
-        <v>10253</v>
+        <v>10252</v>
       </c>
       <c r="S83">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="T83">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U83">
         <v>1226</v>
@@ -6885,7 +6888,7 @@
         <v>1252</v>
       </c>
       <c r="X83">
-        <v>36320</v>
+        <v>36341</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -6893,13 +6896,13 @@
         <v>104</v>
       </c>
       <c r="B84">
-        <v>36317</v>
+        <v>36293</v>
       </c>
       <c r="C84">
-        <v>28324</v>
+        <v>28323</v>
       </c>
       <c r="D84">
-        <v>23300</v>
+        <v>23299</v>
       </c>
       <c r="E84">
         <v>2014</v>
@@ -6914,52 +6917,52 @@
         <v>5022</v>
       </c>
       <c r="I84">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="J84">
-        <v>5378</v>
+        <v>5381</v>
       </c>
       <c r="K84">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="L84">
-        <v>10915</v>
+        <v>10916</v>
       </c>
       <c r="M84">
         <v>9491</v>
       </c>
       <c r="N84">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O84">
-        <v>5246</v>
+        <v>5243</v>
       </c>
       <c r="P84">
-        <v>3469</v>
+        <v>3473</v>
       </c>
       <c r="Q84">
         <v>1422</v>
       </c>
       <c r="R84">
-        <v>10757</v>
+        <v>10751</v>
       </c>
       <c r="S84">
-        <v>9403</v>
+        <v>9398</v>
       </c>
       <c r="T84">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U84">
         <v>1152</v>
       </c>
       <c r="V84">
-        <v>8082</v>
+        <v>8076</v>
       </c>
       <c r="W84">
         <v>1356</v>
       </c>
       <c r="X84">
-        <v>36492</v>
+        <v>36473</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -6967,49 +6970,49 @@
         <v>105</v>
       </c>
       <c r="B85">
-        <v>36224</v>
+        <v>36211</v>
       </c>
       <c r="C85">
-        <v>28420</v>
+        <v>28419</v>
       </c>
       <c r="D85">
         <v>23461</v>
       </c>
       <c r="E85">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="F85">
-        <v>9752</v>
+        <v>9753</v>
       </c>
       <c r="G85">
         <v>11633</v>
       </c>
       <c r="H85">
-        <v>4957</v>
+        <v>4956</v>
       </c>
       <c r="I85">
-        <v>7780</v>
+        <v>7782</v>
       </c>
       <c r="J85">
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="K85">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="L85">
-        <v>10989</v>
+        <v>10992</v>
       </c>
       <c r="M85">
-        <v>9509</v>
+        <v>9512</v>
       </c>
       <c r="N85">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O85">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="P85">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="Q85">
         <v>1475</v>
@@ -7018,22 +7021,22 @@
         <v>10647</v>
       </c>
       <c r="S85">
-        <v>9262</v>
+        <v>9263</v>
       </c>
       <c r="T85">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U85">
         <v>1195</v>
       </c>
       <c r="V85">
-        <v>7934</v>
+        <v>7935</v>
       </c>
       <c r="W85">
         <v>1383</v>
       </c>
       <c r="X85">
-        <v>36580</v>
+        <v>36569</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7041,73 +7044,73 @@
         <v>106</v>
       </c>
       <c r="B86">
-        <v>36774</v>
+        <v>36765</v>
       </c>
       <c r="C86">
-        <v>28993</v>
+        <v>28997</v>
       </c>
       <c r="D86">
-        <v>23887</v>
+        <v>23888</v>
       </c>
       <c r="E86">
         <v>2242</v>
       </c>
       <c r="F86">
-        <v>9965</v>
+        <v>9966</v>
       </c>
       <c r="G86">
         <v>11680</v>
       </c>
       <c r="H86">
-        <v>5104</v>
+        <v>5107</v>
       </c>
       <c r="I86">
         <v>7879</v>
       </c>
       <c r="J86">
-        <v>5099</v>
+        <v>5097</v>
       </c>
       <c r="K86">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="L86">
-        <v>10430</v>
+        <v>10446</v>
       </c>
       <c r="M86">
-        <v>8952</v>
+        <v>8969</v>
       </c>
       <c r="N86">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O86">
-        <v>4759</v>
+        <v>4767</v>
       </c>
       <c r="P86">
-        <v>3454</v>
+        <v>3463</v>
       </c>
       <c r="Q86">
         <v>1467</v>
       </c>
       <c r="R86">
-        <v>11010</v>
+        <v>11020</v>
       </c>
       <c r="S86">
-        <v>9598</v>
+        <v>9608</v>
       </c>
       <c r="T86">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U86">
         <v>1165</v>
       </c>
       <c r="V86">
-        <v>8247</v>
+        <v>8255</v>
       </c>
       <c r="W86">
         <v>1411</v>
       </c>
       <c r="X86">
-        <v>36270</v>
+        <v>36268</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7115,73 +7118,73 @@
         <v>107</v>
       </c>
       <c r="B87">
-        <v>36919</v>
+        <v>36957</v>
       </c>
       <c r="C87">
-        <v>28975</v>
+        <v>28971</v>
       </c>
       <c r="D87">
-        <v>23817</v>
+        <v>23815</v>
       </c>
       <c r="E87">
         <v>2195</v>
       </c>
       <c r="F87">
-        <v>9920</v>
+        <v>9919</v>
       </c>
       <c r="G87">
         <v>11702</v>
       </c>
       <c r="H87">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="I87">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="J87">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="K87">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="L87">
-        <v>10533</v>
+        <v>10511</v>
       </c>
       <c r="M87">
-        <v>9140</v>
+        <v>9118</v>
       </c>
       <c r="N87">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="O87">
-        <v>5034</v>
+        <v>5030</v>
       </c>
       <c r="P87">
-        <v>3374</v>
+        <v>3356</v>
       </c>
       <c r="Q87">
         <v>1390</v>
       </c>
       <c r="R87">
-        <v>10893</v>
+        <v>10889</v>
       </c>
       <c r="S87">
-        <v>9617</v>
+        <v>9613</v>
       </c>
       <c r="T87">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U87">
         <v>1226</v>
       </c>
       <c r="V87">
-        <v>8238</v>
+        <v>8235</v>
       </c>
       <c r="W87">
         <v>1292</v>
       </c>
       <c r="X87">
-        <v>36624</v>
+        <v>36646</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7189,19 +7192,19 @@
         <v>108</v>
       </c>
       <c r="B88">
-        <v>37050</v>
+        <v>37021</v>
       </c>
       <c r="C88">
-        <v>29317</v>
+        <v>29316</v>
       </c>
       <c r="D88">
-        <v>24131</v>
+        <v>24130</v>
       </c>
       <c r="E88">
         <v>2292</v>
       </c>
       <c r="F88">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="G88">
         <v>11832</v>
@@ -7210,13 +7213,13 @@
         <v>5183</v>
       </c>
       <c r="I88">
-        <v>7705</v>
+        <v>7708</v>
       </c>
       <c r="J88">
-        <v>4956</v>
+        <v>4961</v>
       </c>
       <c r="K88">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="L88">
         <v>11138</v>
@@ -7225,22 +7228,22 @@
         <v>9678</v>
       </c>
       <c r="N88">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O88">
-        <v>5285</v>
+        <v>5279</v>
       </c>
       <c r="P88">
-        <v>3590</v>
+        <v>3596</v>
       </c>
       <c r="Q88">
         <v>1457</v>
       </c>
       <c r="R88">
-        <v>10888</v>
+        <v>10881</v>
       </c>
       <c r="S88">
-        <v>9610</v>
+        <v>9602</v>
       </c>
       <c r="T88">
         <v>184</v>
@@ -7249,13 +7252,13 @@
         <v>1121</v>
       </c>
       <c r="V88">
-        <v>8279</v>
+        <v>8272</v>
       </c>
       <c r="W88">
         <v>1294</v>
       </c>
       <c r="X88">
-        <v>37325</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7263,73 +7266,73 @@
         <v>109</v>
       </c>
       <c r="B89">
-        <v>37732</v>
+        <v>37718</v>
       </c>
       <c r="C89">
         <v>29594</v>
       </c>
       <c r="D89">
-        <v>24357</v>
+        <v>24359</v>
       </c>
       <c r="E89">
         <v>2312</v>
       </c>
       <c r="F89">
-        <v>10112</v>
+        <v>10114</v>
       </c>
       <c r="G89">
         <v>11935</v>
       </c>
       <c r="H89">
-        <v>5234</v>
+        <v>5232</v>
       </c>
       <c r="I89">
-        <v>7842</v>
+        <v>7843</v>
       </c>
       <c r="J89">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="K89">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="L89">
-        <v>11159</v>
+        <v>11163</v>
       </c>
       <c r="M89">
-        <v>9703</v>
+        <v>9707</v>
       </c>
       <c r="N89">
         <v>762</v>
       </c>
       <c r="O89">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="P89">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="Q89">
         <v>1454</v>
       </c>
       <c r="R89">
-        <v>11291</v>
+        <v>11294</v>
       </c>
       <c r="S89">
-        <v>9798</v>
+        <v>9801</v>
       </c>
       <c r="T89">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U89">
         <v>1166</v>
       </c>
       <c r="V89">
-        <v>8430</v>
+        <v>8432</v>
       </c>
       <c r="W89">
         <v>1486</v>
       </c>
       <c r="X89">
-        <v>37648</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7337,73 +7340,73 @@
         <v>110</v>
       </c>
       <c r="B90">
-        <v>38111</v>
+        <v>38092</v>
       </c>
       <c r="C90">
-        <v>30012</v>
+        <v>30025</v>
       </c>
       <c r="D90">
-        <v>24717</v>
+        <v>24719</v>
       </c>
       <c r="E90">
         <v>2434</v>
       </c>
       <c r="F90">
-        <v>10236</v>
+        <v>10239</v>
       </c>
       <c r="G90">
         <v>12054</v>
       </c>
       <c r="H90">
-        <v>5293</v>
+        <v>5303</v>
       </c>
       <c r="I90">
-        <v>8020</v>
+        <v>8019</v>
       </c>
       <c r="J90">
-        <v>5210</v>
+        <v>5206</v>
       </c>
       <c r="K90">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="L90">
-        <v>11454</v>
+        <v>11489</v>
       </c>
       <c r="M90">
-        <v>9965</v>
+        <v>10000</v>
       </c>
       <c r="N90">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O90">
-        <v>5370</v>
+        <v>5385</v>
       </c>
       <c r="P90">
-        <v>3694</v>
+        <v>3713</v>
       </c>
       <c r="Q90">
         <v>1481</v>
       </c>
       <c r="R90">
-        <v>11583</v>
+        <v>11594</v>
       </c>
       <c r="S90">
-        <v>10200</v>
+        <v>10210</v>
       </c>
       <c r="T90">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U90">
         <v>1133</v>
       </c>
       <c r="V90">
-        <v>8830</v>
+        <v>8839</v>
       </c>
       <c r="W90">
         <v>1396</v>
       </c>
       <c r="X90">
-        <v>38050</v>
+        <v>38055</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7411,73 +7414,73 @@
         <v>111</v>
       </c>
       <c r="B91">
-        <v>38878</v>
+        <v>38931</v>
       </c>
       <c r="C91">
-        <v>30293</v>
+        <v>30280</v>
       </c>
       <c r="D91">
-        <v>24927</v>
+        <v>24922</v>
       </c>
       <c r="E91">
         <v>2432</v>
       </c>
       <c r="F91">
-        <v>10288</v>
+        <v>10283</v>
       </c>
       <c r="G91">
         <v>12214</v>
       </c>
       <c r="H91">
-        <v>5363</v>
+        <v>5354</v>
       </c>
       <c r="I91">
-        <v>8078</v>
+        <v>8073</v>
       </c>
       <c r="J91">
         <v>5105</v>
       </c>
       <c r="K91">
-        <v>2968</v>
+        <v>2963</v>
       </c>
       <c r="L91">
-        <v>11488</v>
+        <v>11445</v>
       </c>
       <c r="M91">
-        <v>10059</v>
+        <v>10015</v>
       </c>
       <c r="N91">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="O91">
-        <v>5507</v>
+        <v>5490</v>
       </c>
       <c r="P91">
-        <v>3644</v>
+        <v>3612</v>
       </c>
       <c r="Q91">
         <v>1419</v>
       </c>
       <c r="R91">
-        <v>12097</v>
+        <v>12089</v>
       </c>
       <c r="S91">
-        <v>10729</v>
+        <v>10721</v>
       </c>
       <c r="T91">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U91">
         <v>1245</v>
       </c>
       <c r="V91">
-        <v>9232</v>
+        <v>9226</v>
       </c>
       <c r="W91">
         <v>1390</v>
       </c>
       <c r="X91">
-        <v>38369</v>
+        <v>38386</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7485,73 +7488,73 @@
         <v>112</v>
       </c>
       <c r="B92">
-        <v>38722</v>
+        <v>38684</v>
       </c>
       <c r="C92">
-        <v>30304</v>
+        <v>30305</v>
       </c>
       <c r="D92">
-        <v>24967</v>
+        <v>24965</v>
       </c>
       <c r="E92">
         <v>2413</v>
       </c>
       <c r="F92">
-        <v>10234</v>
+        <v>10231</v>
       </c>
       <c r="G92">
         <v>12327</v>
       </c>
       <c r="H92">
-        <v>5335</v>
+        <v>5337</v>
       </c>
       <c r="I92">
-        <v>8125</v>
+        <v>8130</v>
       </c>
       <c r="J92">
-        <v>5100</v>
+        <v>5106</v>
       </c>
       <c r="K92">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="L92">
-        <v>11280</v>
+        <v>11285</v>
       </c>
       <c r="M92">
-        <v>9851</v>
+        <v>9856</v>
       </c>
       <c r="N92">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="O92">
-        <v>5318</v>
+        <v>5319</v>
       </c>
       <c r="P92">
-        <v>3605</v>
+        <v>3613</v>
       </c>
       <c r="Q92">
         <v>1420</v>
       </c>
       <c r="R92">
-        <v>11784</v>
+        <v>11778</v>
       </c>
       <c r="S92">
-        <v>10385</v>
+        <v>10380</v>
       </c>
       <c r="T92">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U92">
         <v>1086</v>
       </c>
       <c r="V92">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="W92">
         <v>1412</v>
       </c>
       <c r="X92">
-        <v>38300</v>
+        <v>38272</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7559,73 +7562,73 @@
         <v>113</v>
       </c>
       <c r="B93">
-        <v>39404</v>
+        <v>39398</v>
       </c>
       <c r="C93">
         <v>30636</v>
       </c>
       <c r="D93">
-        <v>25257</v>
+        <v>25261</v>
       </c>
       <c r="E93">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="F93">
-        <v>10338</v>
+        <v>10342</v>
       </c>
       <c r="G93">
         <v>12487</v>
       </c>
       <c r="H93">
-        <v>5377</v>
+        <v>5373</v>
       </c>
       <c r="I93">
-        <v>8378</v>
+        <v>8379</v>
       </c>
       <c r="J93">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="K93">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="L93">
-        <v>11394</v>
+        <v>11395</v>
       </c>
       <c r="M93">
-        <v>9955</v>
+        <v>9956</v>
       </c>
       <c r="N93">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="O93">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="P93">
-        <v>3660</v>
+        <v>3664</v>
       </c>
       <c r="Q93">
         <v>1429</v>
       </c>
       <c r="R93">
-        <v>12184</v>
+        <v>12189</v>
       </c>
       <c r="S93">
-        <v>10606</v>
+        <v>10611</v>
       </c>
       <c r="T93">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U93">
         <v>1249</v>
       </c>
       <c r="V93">
-        <v>9126</v>
+        <v>9130</v>
       </c>
       <c r="W93">
         <v>1577</v>
       </c>
       <c r="X93">
-        <v>38716</v>
+        <v>38706</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7633,73 +7636,73 @@
         <v>114</v>
       </c>
       <c r="B94">
-        <v>39129</v>
+        <v>39094</v>
       </c>
       <c r="C94">
-        <v>30875</v>
+        <v>30903</v>
       </c>
       <c r="D94">
-        <v>25450</v>
+        <v>25456</v>
       </c>
       <c r="E94">
         <v>2390</v>
       </c>
       <c r="F94">
-        <v>10372</v>
+        <v>10378</v>
       </c>
       <c r="G94">
         <v>12687</v>
       </c>
       <c r="H94">
-        <v>5423</v>
+        <v>5444</v>
       </c>
       <c r="I94">
-        <v>8385</v>
+        <v>8379</v>
       </c>
       <c r="J94">
-        <v>5389</v>
+        <v>5381</v>
       </c>
       <c r="K94">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="L94">
-        <v>11197</v>
+        <v>11250</v>
       </c>
       <c r="M94">
-        <v>9767</v>
+        <v>9820</v>
       </c>
       <c r="N94">
         <v>823</v>
       </c>
       <c r="O94">
-        <v>5221</v>
+        <v>5245</v>
       </c>
       <c r="P94">
-        <v>3657</v>
+        <v>3684</v>
       </c>
       <c r="Q94">
         <v>1421</v>
       </c>
       <c r="R94">
-        <v>11826</v>
+        <v>11831</v>
       </c>
       <c r="S94">
-        <v>10372</v>
+        <v>10378</v>
       </c>
       <c r="T94">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U94">
         <v>1152</v>
       </c>
       <c r="V94">
-        <v>8958</v>
+        <v>8963</v>
       </c>
       <c r="W94">
         <v>1463</v>
       </c>
       <c r="X94">
-        <v>38588</v>
+        <v>38599</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7707,73 +7710,73 @@
         <v>115</v>
       </c>
       <c r="B95">
-        <v>39577</v>
+        <v>39652</v>
       </c>
       <c r="C95">
-        <v>31008</v>
+        <v>30977</v>
       </c>
       <c r="D95">
-        <v>25558</v>
+        <v>25547</v>
       </c>
       <c r="E95">
         <v>2378</v>
       </c>
       <c r="F95">
-        <v>10432</v>
+        <v>10422</v>
       </c>
       <c r="G95">
         <v>12744</v>
       </c>
       <c r="H95">
-        <v>5448</v>
+        <v>5429</v>
       </c>
       <c r="I95">
-        <v>8487</v>
+        <v>8486</v>
       </c>
       <c r="J95">
-        <v>5410</v>
+        <v>5413</v>
       </c>
       <c r="K95">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="L95">
-        <v>11071</v>
+        <v>11008</v>
       </c>
       <c r="M95">
-        <v>9654</v>
+        <v>9591</v>
       </c>
       <c r="N95">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="O95">
-        <v>5217</v>
+        <v>5185</v>
       </c>
       <c r="P95">
-        <v>3516</v>
+        <v>3474</v>
       </c>
       <c r="Q95">
         <v>1409</v>
       </c>
       <c r="R95">
-        <v>11732</v>
+        <v>11724</v>
       </c>
       <c r="S95">
-        <v>10339</v>
+        <v>10332</v>
       </c>
       <c r="T95">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="U95">
         <v>1285</v>
       </c>
       <c r="V95">
-        <v>8829</v>
+        <v>8825</v>
       </c>
       <c r="W95">
         <v>1405</v>
       </c>
       <c r="X95">
-        <v>38999</v>
+        <v>39019</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -7781,58 +7784,58 @@
         <v>116</v>
       </c>
       <c r="B96">
-        <v>39649</v>
+        <v>39595</v>
       </c>
       <c r="C96">
-        <v>31162</v>
+        <v>31166</v>
       </c>
       <c r="D96">
-        <v>25671</v>
+        <v>25667</v>
       </c>
       <c r="E96">
         <v>2361</v>
       </c>
       <c r="F96">
-        <v>10428</v>
+        <v>10424</v>
       </c>
       <c r="G96">
         <v>12876</v>
       </c>
       <c r="H96">
-        <v>5489</v>
+        <v>5496</v>
       </c>
       <c r="I96">
-        <v>8558</v>
+        <v>8566</v>
       </c>
       <c r="J96">
-        <v>5500</v>
+        <v>5509</v>
       </c>
       <c r="K96">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="L96">
-        <v>11298</v>
+        <v>11314</v>
       </c>
       <c r="M96">
-        <v>9902</v>
+        <v>9918</v>
       </c>
       <c r="N96">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="O96">
-        <v>5404</v>
+        <v>5418</v>
       </c>
       <c r="P96">
-        <v>3531</v>
+        <v>3540</v>
       </c>
       <c r="Q96">
         <v>1385</v>
       </c>
       <c r="R96">
-        <v>11646</v>
+        <v>11643</v>
       </c>
       <c r="S96">
-        <v>10241</v>
+        <v>10238</v>
       </c>
       <c r="T96">
         <v>215</v>
@@ -7841,13 +7844,13 @@
         <v>1248</v>
       </c>
       <c r="V96">
-        <v>8762</v>
+        <v>8760</v>
       </c>
       <c r="W96">
         <v>1416</v>
       </c>
       <c r="X96">
-        <v>39367</v>
+        <v>39331</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -7855,73 +7858,73 @@
         <v>117</v>
       </c>
       <c r="B97">
-        <v>38182</v>
+        <v>38186</v>
       </c>
       <c r="C97">
-        <v>29284</v>
+        <v>29285</v>
       </c>
       <c r="D97">
-        <v>24274</v>
+        <v>24282</v>
       </c>
       <c r="E97">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F97">
-        <v>9977</v>
+        <v>9984</v>
       </c>
       <c r="G97">
         <v>12151</v>
       </c>
       <c r="H97">
-        <v>5015</v>
+        <v>5009</v>
       </c>
       <c r="I97">
         <v>8625</v>
       </c>
       <c r="J97">
-        <v>5555</v>
+        <v>5552</v>
       </c>
       <c r="K97">
-        <v>3066</v>
+        <v>3069</v>
       </c>
       <c r="L97">
-        <v>10892</v>
+        <v>10886</v>
       </c>
       <c r="M97">
-        <v>9558</v>
+        <v>9551</v>
       </c>
       <c r="N97">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="O97">
-        <v>5154</v>
+        <v>5147</v>
       </c>
       <c r="P97">
-        <v>3460</v>
+        <v>3466</v>
       </c>
       <c r="Q97">
         <v>1323</v>
       </c>
       <c r="R97">
-        <v>11319</v>
+        <v>11325</v>
       </c>
       <c r="S97">
-        <v>9926</v>
+        <v>9932</v>
       </c>
       <c r="T97">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U97">
         <v>1194</v>
       </c>
       <c r="V97">
-        <v>8507</v>
+        <v>8511</v>
       </c>
       <c r="W97">
         <v>1402</v>
       </c>
       <c r="X97">
-        <v>37826</v>
+        <v>37818</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -7929,73 +7932,73 @@
         <v>118</v>
       </c>
       <c r="B98">
-        <v>37937</v>
+        <v>37878</v>
       </c>
       <c r="C98">
-        <v>30125</v>
+        <v>30173</v>
       </c>
       <c r="D98">
-        <v>24753</v>
+        <v>24763</v>
       </c>
       <c r="E98">
         <v>2067</v>
       </c>
       <c r="F98">
-        <v>10352</v>
+        <v>10362</v>
       </c>
       <c r="G98">
         <v>12301</v>
       </c>
       <c r="H98">
-        <v>5363</v>
+        <v>5398</v>
       </c>
       <c r="I98">
-        <v>8333</v>
+        <v>8320</v>
       </c>
       <c r="J98">
-        <v>5649</v>
+        <v>5633</v>
       </c>
       <c r="K98">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="L98">
-        <v>11236</v>
+        <v>11309</v>
       </c>
       <c r="M98">
-        <v>9944</v>
+        <v>10017</v>
       </c>
       <c r="N98">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O98">
-        <v>5554</v>
+        <v>5593</v>
       </c>
       <c r="P98">
-        <v>3533</v>
+        <v>3568</v>
       </c>
       <c r="Q98">
         <v>1279</v>
       </c>
       <c r="R98">
-        <v>10670</v>
+        <v>10671</v>
       </c>
       <c r="S98">
-        <v>9464</v>
+        <v>9466</v>
       </c>
       <c r="T98">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U98">
         <v>1399</v>
       </c>
       <c r="V98">
-        <v>7872</v>
+        <v>7871</v>
       </c>
       <c r="W98">
         <v>1225</v>
       </c>
       <c r="X98">
-        <v>38541</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -8003,73 +8006,73 @@
         <v>119</v>
       </c>
       <c r="B99">
-        <v>31644</v>
+        <v>31738</v>
       </c>
       <c r="C99">
-        <v>24941</v>
+        <v>24897</v>
       </c>
       <c r="D99">
-        <v>19876</v>
+        <v>19862</v>
       </c>
       <c r="E99">
         <v>1518</v>
       </c>
       <c r="F99">
-        <v>8694</v>
+        <v>8680</v>
       </c>
       <c r="G99">
         <v>9615</v>
       </c>
       <c r="H99">
-        <v>5004</v>
+        <v>4977</v>
       </c>
       <c r="I99">
-        <v>6789</v>
+        <v>6791</v>
       </c>
       <c r="J99">
-        <v>4492</v>
+        <v>4498</v>
       </c>
       <c r="K99">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="L99">
-        <v>11354</v>
+        <v>11259</v>
       </c>
       <c r="M99">
-        <v>10387</v>
+        <v>10292</v>
       </c>
       <c r="N99">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="O99">
-        <v>5438</v>
+        <v>5384</v>
       </c>
       <c r="P99">
-        <v>4097</v>
+        <v>4034</v>
       </c>
       <c r="Q99">
         <v>947</v>
       </c>
       <c r="R99">
-        <v>9342</v>
+        <v>9334</v>
       </c>
       <c r="S99">
-        <v>8488</v>
+        <v>8479</v>
       </c>
       <c r="T99">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="U99">
         <v>943</v>
       </c>
       <c r="V99">
-        <v>7262</v>
+        <v>7260</v>
       </c>
       <c r="W99">
         <v>895</v>
       </c>
       <c r="X99">
-        <v>33656</v>
+        <v>33665</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -8077,49 +8080,49 @@
         <v>120</v>
       </c>
       <c r="B100">
-        <v>34851</v>
+        <v>34784</v>
       </c>
       <c r="C100">
-        <v>28438</v>
+        <v>28445</v>
       </c>
       <c r="D100">
-        <v>23414</v>
+        <v>23409</v>
       </c>
       <c r="E100">
         <v>2884</v>
       </c>
       <c r="F100">
-        <v>10212</v>
+        <v>10207</v>
       </c>
       <c r="G100">
         <v>10384</v>
       </c>
       <c r="H100">
-        <v>5019</v>
+        <v>5031</v>
       </c>
       <c r="I100">
-        <v>7088</v>
+        <v>7095</v>
       </c>
       <c r="J100">
-        <v>4158</v>
+        <v>4167</v>
       </c>
       <c r="K100">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L100">
-        <v>10547</v>
+        <v>10580</v>
       </c>
       <c r="M100">
-        <v>9743</v>
+        <v>9775</v>
       </c>
       <c r="N100">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="O100">
-        <v>5379</v>
+        <v>5413</v>
       </c>
       <c r="P100">
-        <v>3486</v>
+        <v>3495</v>
       </c>
       <c r="Q100">
         <v>783</v>
@@ -8131,19 +8134,19 @@
         <v>9001</v>
       </c>
       <c r="T100">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U100">
         <v>990</v>
       </c>
       <c r="V100">
-        <v>7702</v>
+        <v>7703</v>
       </c>
       <c r="W100">
         <v>947</v>
       </c>
       <c r="X100">
-        <v>35528</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -8151,73 +8154,73 @@
         <v>121</v>
       </c>
       <c r="B101">
-        <v>37571</v>
+        <v>37595</v>
       </c>
       <c r="C101">
-        <v>30381</v>
+        <v>30384</v>
       </c>
       <c r="D101">
-        <v>25200</v>
+        <v>25211</v>
       </c>
       <c r="E101">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="F101">
-        <v>10892</v>
+        <v>10903</v>
       </c>
       <c r="G101">
         <v>11395</v>
       </c>
       <c r="H101">
-        <v>5191</v>
+        <v>5184</v>
       </c>
       <c r="I101">
         <v>7875</v>
       </c>
       <c r="J101">
-        <v>5050</v>
+        <v>5047</v>
       </c>
       <c r="K101">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="L101">
-        <v>10832</v>
+        <v>10811</v>
       </c>
       <c r="M101">
-        <v>9988</v>
+        <v>9968</v>
       </c>
       <c r="N101">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="O101">
-        <v>5287</v>
+        <v>5267</v>
       </c>
       <c r="P101">
-        <v>3679</v>
+        <v>3690</v>
       </c>
       <c r="Q101">
         <v>822</v>
       </c>
       <c r="R101">
-        <v>10660</v>
+        <v>10669</v>
       </c>
       <c r="S101">
-        <v>9732</v>
+        <v>9741</v>
       </c>
       <c r="T101">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="U101">
         <v>1095</v>
       </c>
       <c r="V101">
-        <v>8323</v>
+        <v>8327</v>
       </c>
       <c r="W101">
         <v>980</v>
       </c>
       <c r="X101">
-        <v>37792</v>
+        <v>37788</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8225,73 +8228,147 @@
         <v>122</v>
       </c>
       <c r="B102">
-        <v>40894</v>
+        <v>40931</v>
       </c>
       <c r="C102">
-        <v>31513</v>
+        <v>31660</v>
       </c>
       <c r="D102">
-        <v>25997</v>
+        <v>26073</v>
       </c>
       <c r="E102">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="F102">
-        <v>10993</v>
+        <v>11002</v>
       </c>
       <c r="G102">
-        <v>11978</v>
+        <v>12042</v>
       </c>
       <c r="H102">
-        <v>5533</v>
+        <v>5596</v>
       </c>
       <c r="I102">
-        <v>8442</v>
+        <v>8461</v>
       </c>
       <c r="J102">
-        <v>5142</v>
+        <v>5131</v>
       </c>
       <c r="K102">
-        <v>3271</v>
+        <v>3300</v>
       </c>
       <c r="L102">
-        <v>10602</v>
+        <v>10647</v>
       </c>
       <c r="M102">
-        <v>9751</v>
+        <v>9809</v>
       </c>
       <c r="N102">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="O102">
-        <v>5224</v>
+        <v>5263</v>
       </c>
       <c r="P102">
-        <v>3469</v>
+        <v>3498</v>
       </c>
       <c r="Q102">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="R102">
-        <v>12487</v>
+        <v>12508</v>
       </c>
       <c r="S102">
-        <v>11620</v>
+        <v>11605</v>
       </c>
       <c r="T102">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="U102">
-        <v>1344</v>
+        <v>1308</v>
       </c>
       <c r="V102">
-        <v>9967</v>
+        <v>9969</v>
       </c>
       <c r="W102">
-        <v>967</v>
+        <v>998</v>
       </c>
       <c r="X102">
-        <v>38998</v>
+        <v>39060</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
+      <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103">
+        <v>41571</v>
+      </c>
+      <c r="C103">
+        <v>32189</v>
+      </c>
+      <c r="D103">
+        <v>26537</v>
+      </c>
+      <c r="E103">
+        <v>3470</v>
+      </c>
+      <c r="F103">
+        <v>11183</v>
+      </c>
+      <c r="G103">
+        <v>11962</v>
+      </c>
+      <c r="H103">
+        <v>5666</v>
+      </c>
+      <c r="I103">
+        <v>8487</v>
+      </c>
+      <c r="J103">
+        <v>5070</v>
+      </c>
+      <c r="K103">
+        <v>3380</v>
+      </c>
+      <c r="L103">
+        <v>10919</v>
+      </c>
+      <c r="M103">
+        <v>9943</v>
+      </c>
+      <c r="N103">
+        <v>797</v>
+      </c>
+      <c r="O103">
+        <v>5403</v>
+      </c>
+      <c r="P103">
+        <v>3687</v>
+      </c>
+      <c r="Q103">
+        <v>957</v>
+      </c>
+      <c r="R103">
+        <v>13043</v>
+      </c>
+      <c r="S103">
+        <v>12184</v>
+      </c>
+      <c r="T103">
+        <v>296</v>
+      </c>
+      <c r="U103">
+        <v>1368</v>
+      </c>
+      <c r="V103">
+        <v>10461</v>
+      </c>
+      <c r="W103">
+        <v>970</v>
+      </c>
+      <c r="X103">
+        <v>39460</v>
       </c>
     </row>
   </sheetData>
